--- a/src/databases/outputs_MF.xlsx
+++ b/src/databases/outputs_MF.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="line" sheetId="1" state="visible" r:id="rId2"/>
@@ -323,7 +323,6 @@
   <fonts count="5">
     <font>
       <name val="Arial"/>
-      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -344,7 +343,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="1"/>
       <family val="2"/>
       <b val="true"/>
       <sz val="12"/>
@@ -367,8 +365,8 @@
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thick"/>
       <bottom style="thick"/>
       <diagonal/>
@@ -436,19 +434,19 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D19" activeCellId="1" pane="topLeft" sqref="10:17 D19"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
+      <selection activeCell="D51" activeCellId="0" pane="topLeft" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.71764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3647058823529"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="78.5333333333333"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.2196078431373"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.8117647058824"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="23.5411764705882"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.71764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.76470588235294"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4392156862745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2627450980392"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="78.9294117647059"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.2901960784314"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.9176470588235"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="23.6588235294118"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.76470588235294"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="1">
@@ -877,26 +875,26 @@
   </sheetPr>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A17" activeCellId="0" pane="topLeft" sqref="10:17"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
+      <selection activeCell="K6" activeCellId="0" pane="topLeft" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.71764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.0901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0823529411765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.5058823529412"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.7725490196078"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1960784313726"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.2039215686275"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.7686274509804"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3490196078431"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.0745098039216"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.6509803921569"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.6627450980392"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.5019607843137"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.71764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.76470588235294"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.0039215686275"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1803921568627"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1607843137255"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.5882352941176"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.8352941176471"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.2509803921569"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.2666666666667"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.8313725490196"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.4117647058824"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.1450980392157"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.7333333333333"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.7529411764706"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.5725490196078"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.76470588235294"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="1">

--- a/src/databases/outputs_MF.xlsx
+++ b/src/databases/outputs_MF.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pchainho\Documents\DTOcean-WP5-Installation\src\databases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="line" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="foundation" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="line" sheetId="1" r:id="rId1"/>
+    <sheet name="foundation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="99">
   <si>
     <t>id [-]</t>
   </si>
@@ -310,42 +314,26 @@
   </si>
   <si>
     <t>120.0</t>
+  </si>
+  <si>
+    <t>gravity anchor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="#,##0" numFmtId="165"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="true"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -357,99 +345,345 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thick"/>
-      <right style="thick"/>
-      <top style="thick"/>
-      <bottom style="thick"/>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="D51" activeCellId="0" pane="topLeft" sqref="D51"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.76470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4392156862745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2627450980392"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="78.9294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.2901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.9176470588235"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="23.6588235294118"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.76470588235294"/>
+    <col min="1" max="1" width="8.7109375"/>
+    <col min="2" max="2" width="15.42578125"/>
+    <col min="3" max="3" width="12.28515625"/>
+    <col min="4" max="4" width="78.85546875"/>
+    <col min="5" max="5" width="14.28515625"/>
+    <col min="6" max="6" width="20.85546875"/>
+    <col min="7" max="8" width="23.7109375"/>
+    <col min="9" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="1">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +707,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -497,7 +731,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -521,7 +755,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -545,7 +779,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -569,7 +803,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -593,7 +827,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+    <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -617,7 +851,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+    <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -641,7 +875,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+    <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -665,7 +899,7 @@
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+    <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -689,7 +923,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+    <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
@@ -713,7 +947,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+    <row r="12" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
@@ -737,7 +971,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -761,7 +995,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+    <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
@@ -785,7 +1019,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>56</v>
       </c>
@@ -809,7 +1043,7 @@
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+    <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>59</v>
       </c>
@@ -828,12 +1062,12 @@
       <c r="F16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="4">
         <v>832406097337</v>
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+    <row r="17" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>61</v>
       </c>
@@ -858,10 +1092,10 @@
       <c r="H17" s="3"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.3" right="0.3" top="0.609722222222222" bottom="0.370138888888889" header="0.1" footer="0.1"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="overThenDown" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.60972222222222205" bottom="0.37013888888888902" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="0" scale="0" pageOrder="overThenDown" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;P</oddHeader>
     <oddFooter>&amp;C&amp;F</oddFooter>
   </headerFooter>
@@ -869,35 +1103,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100">
-      <selection activeCell="K6" activeCellId="0" pane="topLeft" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.76470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.0039215686275"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1803921568627"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1607843137255"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.5882352941176"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.8352941176471"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.2509803921569"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.2666666666667"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.8313725490196"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.4117647058824"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.1450980392157"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.7333333333333"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.7529411764706"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.5725490196078"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.76470588235294"/>
+    <col min="1" max="1" width="8.7109375"/>
+    <col min="2" max="2" width="15"/>
+    <col min="3" max="3" width="18.140625"/>
+    <col min="4" max="4" width="16.140625"/>
+    <col min="5" max="5" width="16.5703125"/>
+    <col min="6" max="6" width="12.85546875"/>
+    <col min="7" max="7" width="11.28515625"/>
+    <col min="8" max="8" width="13.28515625"/>
+    <col min="9" max="9" width="11.85546875"/>
+    <col min="10" max="10" width="13.42578125"/>
+    <col min="11" max="11" width="14.140625"/>
+    <col min="12" max="12" width="16.7109375"/>
+    <col min="13" max="13" width="17.7109375"/>
+    <col min="14" max="14" width="15.5703125"/>
+    <col min="15" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="44" outlineLevel="0" r="1">
+    <row r="1" spans="1:14" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -941,7 +1173,7 @@
         <v>72</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+    <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -952,7 +1184,7 @@
         <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>75</v>
@@ -985,7 +1217,7 @@
         <v>84</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+    <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1029,7 +1261,7 @@
         <v>84</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+    <row r="4" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1073,7 +1305,7 @@
         <v>93</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+    <row r="5" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1117,7 +1349,7 @@
         <v>84</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+    <row r="6" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -1161,7 +1393,7 @@
         <v>84</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+    <row r="7" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -1205,7 +1437,7 @@
         <v>84</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+    <row r="8" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -1249,7 +1481,7 @@
         <v>84</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+    <row r="9" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -1294,12 +1526,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>